--- a/dash.xlsx
+++ b/dash.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\all\DataAnalysis\Game_Console_Prices\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\all\DataAnalysis\Game_Console_Prices\Video-Game-Home-Console-Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2061BF2A-5AEA-4E8C-9465-3A9210F8EF01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{649EF86E-A694-4062-8AC3-69293A6AF87B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="22" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -785,13 +785,12 @@
     <xf numFmtId="0" fontId="13" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -800,6 +799,7 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -975,17 +975,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="8"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -1775,17 +1765,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="8"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -1841,17 +1821,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="8"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -1907,17 +1877,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="8"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -1973,17 +1933,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="8"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -2039,17 +1989,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="8"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -2105,17 +2045,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="8"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -2171,19 +2101,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="8"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -2239,19 +2157,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="8"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -2307,19 +2213,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="8"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -2375,19 +2269,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="8"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -2443,19 +2325,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="8"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -4243,8 +4113,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -4307,7 +4176,7 @@
         <c:idx val="15"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent2"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -4325,7 +4194,7 @@
         <c:idx val="16"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent3"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -4343,7 +4212,7 @@
         <c:idx val="17"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent4"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -4361,7 +4230,7 @@
         <c:idx val="18"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent5"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -4379,7 +4248,7 @@
         <c:idx val="19"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent6"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -4397,9 +4266,7 @@
         <c:idx val="20"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:lumMod val="60000"/>
-            </a:schemeClr>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -4417,9 +4284,7 @@
         <c:idx val="21"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent2">
-              <a:lumMod val="60000"/>
-            </a:schemeClr>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -4437,9 +4302,7 @@
         <c:idx val="22"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent3">
-              <a:lumMod val="60000"/>
-            </a:schemeClr>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -4457,9 +4320,7 @@
         <c:idx val="23"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent4">
-              <a:lumMod val="60000"/>
-            </a:schemeClr>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -4477,9 +4338,7 @@
         <c:idx val="24"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent5">
-              <a:lumMod val="60000"/>
-            </a:schemeClr>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -5944,35 +5803,65 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Pivot1!$Z$28:$Z$31</c:f>
+              <c:f>Pivot1!$Z$28:$Z$36</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1977</c:v>
+                  <c:v>1985</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1982</c:v>
+                  <c:v>1991</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1993</c:v>
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2019</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Pivot1!$AA$28:$AA$31</c:f>
+              <c:f>Pivot1!$AA$28:$AA$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>673.928</c:v>
+                  <c:v>2964.9937199999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>71.344999999999999</c:v>
+                  <c:v>1851.0209</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.6583500000000004</c:v>
+                  <c:v>1079.3795399999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>633.87318000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3264.2539700000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>457.74491999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3187.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>516.11490000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9117,8 +9006,8 @@
           </a:graphicData>
         </a:graphic>
       </xdr:graphicFrame>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+        <mc:Choice Requires="a14">
           <xdr:graphicFrame macro="">
             <xdr:nvGraphicFramePr>
               <xdr:cNvPr id="10" name="Year">
@@ -9131,8 +9020,8 @@
               <xdr:cNvGraphicFramePr/>
             </xdr:nvGraphicFramePr>
             <xdr:xfrm>
-              <a:off x="6400798" y="466725"/>
-              <a:ext cx="5857875" cy="1726117"/>
+              <a:off x="6400798" y="524730"/>
+              <a:ext cx="5857875" cy="1668111"/>
             </xdr:xfrm>
             <a:graphic>
               <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
@@ -9141,7 +9030,7 @@
             </a:graphic>
           </xdr:graphicFrame>
         </mc:Choice>
-        <mc:Fallback>
+        <mc:Fallback xmlns="">
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
               <xdr:cNvPr id="0" name=""/>
@@ -9325,7 +9214,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Pivot1!$X$49" spid="_x0000_s5140"/>
+                  <a14:cameraTool cellRange="Pivot1!$X$49" spid="_x0000_s5145"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -9528,7 +9417,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Pivot1!$X$50" spid="_x0000_s5141"/>
+                  <a14:cameraTool cellRange="Pivot1!$X$50" spid="_x0000_s5146"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -9686,8 +9575,8 @@
           </a:graphicData>
         </a:graphic>
       </xdr:graphicFrame>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+        <mc:Choice Requires="a14">
           <xdr:graphicFrame macro="">
             <xdr:nvGraphicFramePr>
               <xdr:cNvPr id="55" name="Brand">
@@ -9710,7 +9599,7 @@
             </a:graphic>
           </xdr:graphicFrame>
         </mc:Choice>
-        <mc:Fallback>
+        <mc:Fallback xmlns="">
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
               <xdr:cNvPr id="0" name=""/>
@@ -10255,183 +10144,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6D3BB4F8-8114-4EEB-A50C-90EFD7BB1670}" name="PivotTable9" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="C39:D51" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="9">
-    <pivotField showAll="0">
-      <items count="33">
-        <item x="11"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="12"/>
-        <item x="3"/>
-        <item x="16"/>
-        <item x="18"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="9"/>
-        <item x="5"/>
-        <item x="15"/>
-        <item x="27"/>
-        <item x="29"/>
-        <item x="13"/>
-        <item x="17"/>
-        <item x="22"/>
-        <item x="24"/>
-        <item x="26"/>
-        <item x="31"/>
-        <item x="8"/>
-        <item x="6"/>
-        <item x="14"/>
-        <item x="10"/>
-        <item x="7"/>
-        <item x="21"/>
-        <item x="23"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="25"/>
-        <item x="28"/>
-        <item x="30"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="23">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="12">
-        <item x="8"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="10"/>
-        <item x="6"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item x="9"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="5"/>
-  </rowFields>
-  <rowItems count="12">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Average of Adjusted Price" fld="3" subtotal="average" baseField="5" baseItem="0"/>
-  </dataFields>
-  <conditionalFormats count="1">
-    <conditionalFormat priority="1">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="5" count="11">
-              <x v="0"/>
-              <x v="1"/>
-              <x v="2"/>
-              <x v="3"/>
-              <x v="4"/>
-              <x v="5"/>
-              <x v="6"/>
-              <x v="7"/>
-              <x v="8"/>
-              <x v="9"/>
-              <x v="10"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-  </conditionalFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CC704C1A-30EC-4588-A5B5-A40B552B7760}" name="PivotTable7" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CC704C1A-30EC-4588-A5B5-A40B552B7760}" name="PivotTable7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A39:B83" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0">
@@ -10714,254 +10427,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{83C86DF7-7256-4237-B8A2-FF870072A5B5}" name="PivotTable13" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
-  <location ref="Z27:AA31" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="9">
-    <pivotField showAll="0" countASubtotal="1">
-      <items count="33">
-        <item x="11"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="12"/>
-        <item x="3"/>
-        <item x="16"/>
-        <item x="18"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="9"/>
-        <item x="5"/>
-        <item x="15"/>
-        <item x="27"/>
-        <item x="29"/>
-        <item x="13"/>
-        <item x="17"/>
-        <item x="22"/>
-        <item x="24"/>
-        <item x="26"/>
-        <item x="31"/>
-        <item x="8"/>
-        <item x="6"/>
-        <item x="14"/>
-        <item x="10"/>
-        <item x="7"/>
-        <item x="21"/>
-        <item x="23"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="25"/>
-        <item x="28"/>
-        <item x="30"/>
-        <item t="countA"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="23">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField multipleItemSelectionAllowed="1" showAll="0">
-      <items count="12">
-        <item h="1" x="8"/>
-        <item x="1"/>
-        <item h="1" x="3"/>
-        <item h="1" x="2"/>
-        <item h="1" x="10"/>
-        <item h="1" x="6"/>
-        <item h="1" x="4"/>
-        <item h="1" x="0"/>
-        <item h="1" x="5"/>
-        <item h="1" x="7"/>
-        <item h="1" x="9"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="32">
-        <item x="11"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item x="9"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="7"/>
-        <item x="1"/>
-        <item x="15"/>
-        <item x="13"/>
-        <item x="27"/>
-        <item x="6"/>
-        <item x="22"/>
-        <item x="25"/>
-        <item x="29"/>
-        <item x="28"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="14"/>
-        <item x="8"/>
-        <item x="30"/>
-        <item x="10"/>
-        <item x="24"/>
-        <item x="5"/>
-        <item x="19"/>
-        <item x="21"/>
-        <item x="23"/>
-        <item x="20"/>
-        <item x="12"/>
-        <item x="26"/>
-        <item x="16"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Average of Adjusted Revenue (10s Millions $)" fld="8" subtotal="average" baseField="1" baseItem="0"/>
-  </dataFields>
-  <conditionalFormats count="1">
-    <conditionalFormat priority="1">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="1" count="22">
-              <x v="0"/>
-              <x v="1"/>
-              <x v="2"/>
-              <x v="3"/>
-              <x v="4"/>
-              <x v="5"/>
-              <x v="6"/>
-              <x v="7"/>
-              <x v="8"/>
-              <x v="9"/>
-              <x v="10"/>
-              <x v="11"/>
-              <x v="12"/>
-              <x v="13"/>
-              <x v="14"/>
-              <x v="15"/>
-              <x v="16"/>
-              <x v="17"/>
-              <x v="18"/>
-              <x v="19"/>
-              <x v="20"/>
-              <x v="21"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-  </conditionalFormats>
-  <chartFormats count="5">
-    <chartFormat chart="3" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="18" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6FF17F42-B427-4D3B-A81B-1B63FE81095E}" name="PivotTable12" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="Z1:AW14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6D3BB4F8-8114-4EEB-A50C-90EFD7BB1670}" name="PivotTable9" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="C39:D51" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0">
       <items count="33">
@@ -11000,265 +10468,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="23">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="12">
-        <item x="8"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="10"/>
-        <item x="6"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item x="9"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="5"/>
-  </rowFields>
-  <rowItems count="12">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="1"/>
-  </colFields>
-  <colItems count="23">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Adjusted Revenue (10s Millions $)" fld="8" baseField="0" baseItem="0"/>
-  </dataFields>
-  <conditionalFormats count="1">
-    <conditionalFormat priority="2">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="1" count="22">
-              <x v="0"/>
-              <x v="1"/>
-              <x v="2"/>
-              <x v="3"/>
-              <x v="4"/>
-              <x v="5"/>
-              <x v="6"/>
-              <x v="7"/>
-              <x v="8"/>
-              <x v="9"/>
-              <x v="10"/>
-              <x v="11"/>
-              <x v="12"/>
-              <x v="13"/>
-              <x v="14"/>
-              <x v="15"/>
-              <x v="16"/>
-              <x v="17"/>
-              <x v="18"/>
-              <x v="19"/>
-              <x v="20"/>
-              <x v="21"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-  </conditionalFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DA09CA6E-AD18-45C6-A1DB-686BA3325B2C}" name="PivotTable8" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A34:X47" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="9">
     <pivotField showAll="0">
-      <items count="33">
-        <item x="11"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="12"/>
-        <item x="3"/>
-        <item x="16"/>
-        <item x="18"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="9"/>
-        <item x="5"/>
-        <item x="15"/>
-        <item x="27"/>
-        <item x="29"/>
-        <item x="13"/>
-        <item x="17"/>
-        <item x="22"/>
-        <item x="24"/>
-        <item x="26"/>
-        <item x="31"/>
-        <item x="8"/>
-        <item x="6"/>
-        <item x="14"/>
-        <item x="10"/>
-        <item x="7"/>
-        <item x="21"/>
-        <item x="23"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="25"/>
-        <item x="28"/>
-        <item x="30"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" showAll="0">
       <items count="23">
         <item x="0"/>
         <item x="1"/>
@@ -11349,83 +10559,38 @@
       <x/>
     </i>
   </rowItems>
-  <colFields count="1">
-    <field x="1"/>
-  </colFields>
-  <colItems count="23">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
+  <colItems count="1">
+    <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of Adjusted Price" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Average of Adjusted Price" fld="3" subtotal="average" baseField="5" baseItem="0"/>
   </dataFields>
+  <conditionalFormats count="1">
+    <conditionalFormat priority="1">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="5" count="11">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+              <x v="5"/>
+              <x v="6"/>
+              <x v="7"/>
+              <x v="8"/>
+              <x v="9"/>
+              <x v="10"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+  </conditionalFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -11438,423 +10603,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DF4E47FD-9880-446E-AF1E-F3D2A2D01F5A}" name="PivotTable5" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
-  <location ref="G3:S27" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="9">
-    <pivotField showAll="0">
-      <items count="33">
-        <item x="11"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="12"/>
-        <item x="3"/>
-        <item x="16"/>
-        <item x="18"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="9"/>
-        <item x="5"/>
-        <item x="15"/>
-        <item x="27"/>
-        <item x="29"/>
-        <item x="13"/>
-        <item x="17"/>
-        <item x="22"/>
-        <item x="24"/>
-        <item x="26"/>
-        <item x="31"/>
-        <item x="8"/>
-        <item x="6"/>
-        <item x="14"/>
-        <item x="10"/>
-        <item x="7"/>
-        <item x="21"/>
-        <item x="23"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="25"/>
-        <item x="28"/>
-        <item x="30"/>
-        <item t="default"/>
-      </items>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="23">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item t="default"/>
-      </items>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField showAll="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField showAll="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField showAll="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="12">
-        <item x="8"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="10"/>
-        <item x="6"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item x="9"/>
-        <item t="default"/>
-      </items>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField showAll="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField showAll="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField dataField="1" showAll="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="23">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="5"/>
-  </colFields>
-  <colItems count="12">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Adjusted Revenue (10s Millions $)" fld="8" baseField="1" baseItem="8"/>
-  </dataFields>
-  <chartFormats count="12">
-    <chartFormat chart="1" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="23" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="24" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="25" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="26" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="27" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="28" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="29" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="30" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="31" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="9"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="32" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="10"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{42663C83-2A54-4FF5-B6DA-040AB0F44826}" name="PivotTable4" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="27">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{42663C83-2A54-4FF5-B6DA-040AB0F44826}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="27">
   <location ref="D18:E30" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField dataField="1" showAll="0"/>
@@ -12282,8 +11032,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{81CEB5C0-5FE7-4812-914F-D7866F0E18D8}" name="PivotTable2" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{81CEB5C0-5FE7-4812-914F-D7866F0E18D8}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
   <location ref="D3:E15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -12407,8 +11157,526 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{620603E7-ACDC-4968-BDBA-7D82D895DA6B}" name="Pivot1" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{83C86DF7-7256-4237-B8A2-FF870072A5B5}" name="PivotTable13" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19">
+  <location ref="Z27:AA36" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="9">
+    <pivotField showAll="0" countASubtotal="1">
+      <items count="33">
+        <item x="11"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="12"/>
+        <item x="3"/>
+        <item x="16"/>
+        <item x="18"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="9"/>
+        <item x="5"/>
+        <item x="15"/>
+        <item x="27"/>
+        <item x="29"/>
+        <item x="13"/>
+        <item x="17"/>
+        <item x="22"/>
+        <item x="24"/>
+        <item x="26"/>
+        <item x="31"/>
+        <item x="8"/>
+        <item x="6"/>
+        <item x="14"/>
+        <item x="10"/>
+        <item x="7"/>
+        <item x="21"/>
+        <item x="23"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="25"/>
+        <item x="28"/>
+        <item x="30"/>
+        <item t="countA"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="23">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField multipleItemSelectionAllowed="1" showAll="0">
+      <items count="12">
+        <item h="1" x="8"/>
+        <item h="1" x="1"/>
+        <item h="1" x="3"/>
+        <item h="1" x="2"/>
+        <item h="1" x="10"/>
+        <item h="1" x="6"/>
+        <item x="4"/>
+        <item h="1" x="0"/>
+        <item h="1" x="5"/>
+        <item h="1" x="7"/>
+        <item h="1" x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="32">
+        <item x="11"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="9"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item x="15"/>
+        <item x="13"/>
+        <item x="27"/>
+        <item x="6"/>
+        <item x="22"/>
+        <item x="25"/>
+        <item x="29"/>
+        <item x="28"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="14"/>
+        <item x="8"/>
+        <item x="30"/>
+        <item x="10"/>
+        <item x="24"/>
+        <item x="5"/>
+        <item x="19"/>
+        <item x="21"/>
+        <item x="23"/>
+        <item x="20"/>
+        <item x="12"/>
+        <item x="26"/>
+        <item x="16"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of Adjusted Revenue (10s Millions $)" fld="8" subtotal="average" baseField="1" baseItem="0"/>
+  </dataFields>
+  <conditionalFormats count="1">
+    <conditionalFormat priority="1">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="1" count="22">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+              <x v="5"/>
+              <x v="6"/>
+              <x v="7"/>
+              <x v="8"/>
+              <x v="9"/>
+              <x v="10"/>
+              <x v="11"/>
+              <x v="12"/>
+              <x v="13"/>
+              <x v="14"/>
+              <x v="15"/>
+              <x v="16"/>
+              <x v="17"/>
+              <x v="18"/>
+              <x v="19"/>
+              <x v="20"/>
+              <x v="21"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+  </conditionalFormats>
+  <chartFormats count="5">
+    <chartFormat chart="3" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="18" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6FF17F42-B427-4D3B-A81B-1B63FE81095E}" name="PivotTable12" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="Z1:AW14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="9">
+    <pivotField showAll="0">
+      <items count="33">
+        <item x="11"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="12"/>
+        <item x="3"/>
+        <item x="16"/>
+        <item x="18"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="9"/>
+        <item x="5"/>
+        <item x="15"/>
+        <item x="27"/>
+        <item x="29"/>
+        <item x="13"/>
+        <item x="17"/>
+        <item x="22"/>
+        <item x="24"/>
+        <item x="26"/>
+        <item x="31"/>
+        <item x="8"/>
+        <item x="6"/>
+        <item x="14"/>
+        <item x="10"/>
+        <item x="7"/>
+        <item x="21"/>
+        <item x="23"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="25"/>
+        <item x="28"/>
+        <item x="30"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="23">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="12">
+        <item x="8"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="10"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="5"/>
+  </rowFields>
+  <rowItems count="12">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="23">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Adjusted Revenue (10s Millions $)" fld="8" baseField="0" baseItem="0"/>
+  </dataFields>
+  <conditionalFormats count="1">
+    <conditionalFormat priority="2">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="1" count="22">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+              <x v="5"/>
+              <x v="6"/>
+              <x v="7"/>
+              <x v="8"/>
+              <x v="9"/>
+              <x v="10"/>
+              <x v="11"/>
+              <x v="12"/>
+              <x v="13"/>
+              <x v="14"/>
+              <x v="15"/>
+              <x v="16"/>
+              <x v="17"/>
+              <x v="18"/>
+              <x v="19"/>
+              <x v="20"/>
+              <x v="21"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+  </conditionalFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{620603E7-ACDC-4968-BDBA-7D82D895DA6B}" name="Pivot1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A3:B26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0">
@@ -12627,6 +11895,642 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DA09CA6E-AD18-45C6-A1DB-686BA3325B2C}" name="PivotTable8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A34:X47" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="9">
+    <pivotField showAll="0">
+      <items count="33">
+        <item x="11"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="12"/>
+        <item x="3"/>
+        <item x="16"/>
+        <item x="18"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="9"/>
+        <item x="5"/>
+        <item x="15"/>
+        <item x="27"/>
+        <item x="29"/>
+        <item x="13"/>
+        <item x="17"/>
+        <item x="22"/>
+        <item x="24"/>
+        <item x="26"/>
+        <item x="31"/>
+        <item x="8"/>
+        <item x="6"/>
+        <item x="14"/>
+        <item x="10"/>
+        <item x="7"/>
+        <item x="21"/>
+        <item x="23"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="25"/>
+        <item x="28"/>
+        <item x="30"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="23">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="12">
+        <item x="8"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="10"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="5"/>
+  </rowFields>
+  <rowItems count="12">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="23">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Adjusted Price" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DF4E47FD-9880-446E-AF1E-F3D2A2D01F5A}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+  <location ref="G3:S27" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="9">
+    <pivotField showAll="0">
+      <items count="33">
+        <item x="11"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="12"/>
+        <item x="3"/>
+        <item x="16"/>
+        <item x="18"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="9"/>
+        <item x="5"/>
+        <item x="15"/>
+        <item x="27"/>
+        <item x="29"/>
+        <item x="13"/>
+        <item x="17"/>
+        <item x="22"/>
+        <item x="24"/>
+        <item x="26"/>
+        <item x="31"/>
+        <item x="8"/>
+        <item x="6"/>
+        <item x="14"/>
+        <item x="10"/>
+        <item x="7"/>
+        <item x="21"/>
+        <item x="23"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="25"/>
+        <item x="28"/>
+        <item x="30"/>
+        <item t="default"/>
+      </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="23">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item t="default"/>
+      </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="12">
+        <item x="8"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="10"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField dataField="1" showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="23">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="5"/>
+  </colFields>
+  <colItems count="12">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Adjusted Revenue (10s Millions $)" fld="8" baseField="1" baseItem="8"/>
+  </dataFields>
+  <chartFormats count="12">
+    <chartFormat chart="1" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="23" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="24" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="25" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="26" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="27" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="28" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="29" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="30" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="31" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="32" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Year" xr10:uid="{5BEB468A-45AA-4BAD-86EF-7E3B538AEBE9}" sourceName="Year">
   <pivotTables>
@@ -12672,12 +12576,12 @@
     <tabular pivotCacheId="1286509310">
       <items count="11">
         <i x="8"/>
-        <i x="1" s="1"/>
+        <i x="1"/>
         <i x="3"/>
         <i x="2"/>
         <i x="10"/>
         <i x="6"/>
-        <i x="4"/>
+        <i x="4" s="1"/>
         <i x="0"/>
         <i x="5"/>
         <i x="7"/>
@@ -12695,7 +12599,7 @@
 
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="Year" xr10:uid="{C31DC087-9AE1-49AA-B5B3-634F26EBA22D}" cache="Slicer_Year" caption="Console Release Year" columnCount="3" rowHeight="273050"/>
+  <slicer name="Year" xr10:uid="{C31DC087-9AE1-49AA-B5B3-634F26EBA22D}" cache="Slicer_Year" caption="Console Release Year" startItem="18" columnCount="3" rowHeight="273050"/>
   <slicer name="Brand" xr10:uid="{FF601BD6-CF3F-43C8-82BE-DE90BD347F89}" cache="Slicer_Brand" caption="Brand" rowHeight="273050"/>
 </slicers>
 </file>
@@ -12961,8 +12865,8 @@
   </sheetPr>
   <dimension ref="A1:S83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.25" zeroHeight="1" x14ac:dyDescent="0.35"/>
@@ -12974,9 +12878,9 @@
     <col min="6" max="7" width="9" customWidth="1"/>
     <col min="8" max="8" width="15.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="27.625" customWidth="1"/>
-    <col min="10" max="17" width="9" hidden="1"/>
-    <col min="18" max="18" width="13" hidden="1"/>
-    <col min="19" max="19" width="37.75" hidden="1"/>
+    <col min="10" max="17" width="9" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="13" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="37.75" hidden="1" customWidth="1"/>
     <col min="20" max="16384" width="9" hidden="1"/>
   </cols>
   <sheetData>
@@ -13001,8 +12905,8 @@
     <row r="19" spans="5:5" x14ac:dyDescent="0.35"/>
     <row r="20" spans="5:5" x14ac:dyDescent="0.35"/>
     <row r="21" spans="5:5" ht="27.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="E21" s="14" t="s">
-        <v>18</v>
+      <c r="E21" s="13" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="5:5" x14ac:dyDescent="0.35"/>
@@ -13023,13 +12927,13 @@
     <row r="37" spans="1:4" x14ac:dyDescent="0.35"/>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35"/>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="10" t="s">
         <v>52</v>
       </c>
       <c r="B39" t="s">
         <v>57</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="10" t="s">
         <v>52</v>
       </c>
       <c r="D39" t="s">
@@ -13037,426 +12941,426 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="10">
+      <c r="B40">
         <v>249.392</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C40" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="10">
+      <c r="D40">
         <v>1246.96</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="13">
+      <c r="A41" s="12">
         <v>1993</v>
       </c>
-      <c r="B41" s="10">
+      <c r="B41">
         <v>249.392</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C41" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D41" s="10">
+      <c r="D41">
         <v>666.58333333333337</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="12" t="s">
+      <c r="A42" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="10">
+      <c r="B42">
         <v>751.93135000000007</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="C42" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D42" s="10">
+      <c r="D42">
         <v>465.56</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" s="13">
+      <c r="A43" s="12">
         <v>1977</v>
       </c>
-      <c r="B43" s="10">
+      <c r="B43">
         <v>673.928</v>
       </c>
-      <c r="C43" s="12" t="s">
+      <c r="C43" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D43" s="10">
+      <c r="D43">
         <v>916.46</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" s="13">
+      <c r="A44" s="12">
         <v>1982</v>
       </c>
-      <c r="B44" s="10">
+      <c r="B44">
         <v>71.344999999999999</v>
       </c>
-      <c r="C44" s="12" t="s">
+      <c r="C44" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D44" s="10">
+      <c r="D44">
         <v>442.53199999999998</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" s="13">
+      <c r="A45" s="12">
         <v>1993</v>
       </c>
-      <c r="B45" s="10">
+      <c r="B45">
         <v>6.6583500000000004</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="C45" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D45" s="10">
+      <c r="D45">
         <v>415.12</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="12" t="s">
+      <c r="A46" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B46" s="10">
+      <c r="B46">
         <v>93.111999999999995</v>
       </c>
-      <c r="C46" s="12" t="s">
+      <c r="C46" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D46" s="10">
+      <c r="D46">
         <v>331.78</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" s="13">
+      <c r="A47" s="12">
         <v>1982</v>
       </c>
-      <c r="B47" s="10">
+      <c r="B47">
         <v>93.111999999999995</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="C47" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D47" s="10">
+      <c r="D47">
         <v>611.21</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" s="12" t="s">
+      <c r="A48" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B48" s="10">
+      <c r="B48">
         <v>343.67250000000001</v>
       </c>
-      <c r="C48" s="12" t="s">
+      <c r="C48" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D48" s="10">
+      <c r="D48">
         <v>463.26749999999998</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="13">
+      <c r="A49" s="12">
         <v>1980</v>
       </c>
-      <c r="B49" s="10">
+      <c r="B49">
         <v>343.67250000000001</v>
       </c>
-      <c r="C49" s="12" t="s">
+      <c r="C49" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D49" s="10">
+      <c r="D49">
         <v>1238.52</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" s="12" t="s">
+      <c r="A50" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B50" s="10">
+      <c r="B50">
         <v>7846.0279999999993</v>
       </c>
-      <c r="C50" s="12" t="s">
+      <c r="C50" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D50" s="10">
+      <c r="D50">
         <v>478.53999999999996</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" s="13">
+      <c r="A51" s="12">
         <v>2001</v>
       </c>
-      <c r="B51" s="10">
+      <c r="B51">
         <v>1051.3920000000001</v>
       </c>
-      <c r="C51" s="12" t="s">
+      <c r="C51" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="D51" s="10">
+      <c r="D51">
         <v>515.14968750000003</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" s="13">
+      <c r="A52" s="12">
         <v>2005</v>
       </c>
-      <c r="B52" s="10">
+      <c r="B52">
         <v>3303.72</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" s="13">
+      <c r="A53" s="12">
         <v>2013</v>
       </c>
-      <c r="B53" s="10">
+      <c r="B53">
         <v>2337.2159999999999</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" s="13">
+      <c r="A54" s="12">
         <v>2017</v>
       </c>
-      <c r="B54" s="10">
+      <c r="B54">
         <v>525.79999999999995</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" s="13">
+      <c r="A55" s="12">
         <v>2020</v>
       </c>
-      <c r="B55" s="10">
+      <c r="B55">
         <v>627.9</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" s="12" t="s">
+      <c r="A56" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B56" s="10">
+      <c r="B56">
         <v>316.32144</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" s="13">
+      <c r="A57" s="12">
         <v>1989</v>
       </c>
-      <c r="B57" s="10">
+      <c r="B57">
         <v>316.32144</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" s="12" t="s">
+      <c r="A58" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B58" s="10">
+      <c r="B58">
         <v>13955.081129999999</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" s="13">
+      <c r="A59" s="12">
         <v>1985</v>
       </c>
-      <c r="B59" s="10">
+      <c r="B59">
         <v>2964.9937199999999</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" s="13">
+      <c r="A60" s="12">
         <v>1991</v>
       </c>
-      <c r="B60" s="10">
+      <c r="B60">
         <v>1851.0209</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61" s="13">
+      <c r="A61" s="12">
         <v>1996</v>
       </c>
-      <c r="B61" s="10">
+      <c r="B61">
         <v>1079.3795399999999</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62" s="13">
+      <c r="A62" s="12">
         <v>2001</v>
       </c>
-      <c r="B62" s="10">
+      <c r="B62">
         <v>633.87318000000005</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63" s="13">
+      <c r="A63" s="12">
         <v>2006</v>
       </c>
-      <c r="B63" s="10">
+      <c r="B63">
         <v>3264.2539700000002</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64" s="13">
+      <c r="A64" s="12">
         <v>2012</v>
       </c>
-      <c r="B64" s="10">
+      <c r="B64">
         <v>457.74491999999998</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65" s="13">
+      <c r="A65" s="12">
         <v>2017</v>
       </c>
-      <c r="B65" s="10">
+      <c r="B65">
         <v>3187.7</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A66" s="13">
+      <c r="A66" s="12">
         <v>2019</v>
       </c>
-      <c r="B66" s="10">
+      <c r="B66">
         <v>516.11490000000003</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A67" s="12" t="s">
+      <c r="A67" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B67" s="10">
+      <c r="B67">
         <v>21.39235</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A68" s="13">
+      <c r="A68" s="12">
         <v>1972</v>
       </c>
-      <c r="B68" s="10">
+      <c r="B68">
         <v>21.39235</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A69" s="12" t="s">
+      <c r="A69" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B69" s="10">
+      <c r="B69">
         <v>2841.7564199999997</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A70" s="13">
+      <c r="A70" s="12">
         <v>1986</v>
       </c>
-      <c r="B70" s="10">
+      <c r="B70">
         <v>539.76400000000001</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A71" s="13">
+      <c r="A71" s="12">
         <v>1989</v>
       </c>
-      <c r="B71" s="10">
+      <c r="B71">
         <v>1389.7665</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A72" s="13">
+      <c r="A72" s="12">
         <v>1995</v>
       </c>
-      <c r="B72" s="10">
+      <c r="B72">
         <v>630.96713999999997</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A73" s="13">
+      <c r="A73" s="12">
         <v>1999</v>
       </c>
-      <c r="B73" s="10">
+      <c r="B73">
         <v>281.25878</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A74" s="12" t="s">
+      <c r="A74" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B74" s="10">
+      <c r="B74">
         <v>146.14536000000001</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A75" s="13">
+      <c r="A75" s="12">
         <v>1991</v>
       </c>
-      <c r="B75" s="10">
+      <c r="B75">
         <v>146.14536000000001</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A76" s="12" t="s">
+      <c r="A76" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B76" s="10">
+      <c r="B76">
         <v>24625.19832</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A77" s="13">
+      <c r="A77" s="12">
         <v>1995</v>
       </c>
-      <c r="B77" s="10">
+      <c r="B77">
         <v>5199.1127200000001</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A78" s="13">
+      <c r="A78" s="12">
         <v>2000</v>
       </c>
-      <c r="B78" s="10">
+      <c r="B78">
         <v>7088.1768000000002</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A79" s="13">
+      <c r="A79" s="12">
         <v>2006</v>
       </c>
-      <c r="B79" s="10">
+      <c r="B79">
         <v>5625.6758</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A80" s="13">
+      <c r="A80" s="12">
         <v>2013</v>
       </c>
-      <c r="B80" s="10">
+      <c r="B80">
         <v>4449.6000000000004</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A81" s="13">
+      <c r="A81" s="12">
         <v>2016</v>
       </c>
-      <c r="B81" s="10">
+      <c r="B81">
         <v>730.47299999999996</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A82" s="13">
+      <c r="A82" s="12">
         <v>2020</v>
       </c>
-      <c r="B82" s="10">
+      <c r="B82">
         <v>1532.16</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A83" s="12" t="s">
+      <c r="A83" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B83" s="10">
+      <c r="B83">
         <v>51190.030869999995</v>
       </c>
     </row>
@@ -14535,7 +14439,7 @@
       <selection activeCell="AJ21" sqref="AJ21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
@@ -14574,16 +14478,16 @@
     <col min="49" max="49" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="Z1" s="11" t="s">
+    <row r="1" spans="1:49" ht="15" x14ac:dyDescent="0.35">
+      <c r="Z1" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="AA1" s="11" t="s">
+      <c r="AA1" s="10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="Z2" s="11" t="s">
+    <row r="2" spans="1:49" ht="15" x14ac:dyDescent="0.35">
+      <c r="Z2" s="10" t="s">
         <v>52</v>
       </c>
       <c r="AA2">
@@ -14656,70 +14560,49 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:49" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
         <v>52</v>
       </c>
       <c r="B3" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>52</v>
       </c>
       <c r="E3" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="Z3" s="12" t="s">
+      <c r="Z3" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="AA3" s="10"/>
-      <c r="AB3" s="10"/>
-      <c r="AC3" s="10"/>
-      <c r="AD3" s="10"/>
-      <c r="AE3" s="10"/>
-      <c r="AF3" s="10"/>
-      <c r="AG3" s="10"/>
-      <c r="AH3" s="10"/>
-      <c r="AI3" s="10">
+      <c r="AI3">
         <v>249.392</v>
       </c>
-      <c r="AJ3" s="10"/>
-      <c r="AK3" s="10"/>
-      <c r="AL3" s="10"/>
-      <c r="AM3" s="10"/>
-      <c r="AN3" s="10"/>
-      <c r="AO3" s="10"/>
-      <c r="AP3" s="10"/>
-      <c r="AQ3" s="10"/>
-      <c r="AR3" s="10"/>
-      <c r="AS3" s="10"/>
-      <c r="AT3" s="10"/>
-      <c r="AU3" s="10"/>
-      <c r="AV3" s="10"/>
-      <c r="AW3" s="10">
+      <c r="AW3">
         <v>249.392</v>
       </c>
     </row>
-    <row r="4" spans="1:49" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A4" s="12">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="A4" s="11">
         <v>1972</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4">
         <v>21.39235</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4">
         <v>249.392</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="10" t="s">
         <v>52</v>
       </c>
       <c r="H4" t="s">
@@ -14758,1270 +14641,891 @@
       <c r="S4" t="s">
         <v>53</v>
       </c>
-      <c r="Z4" s="12" t="s">
+      <c r="Z4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="AA4" s="10"/>
-      <c r="AB4" s="10">
+      <c r="AB4">
         <v>673.928</v>
       </c>
-      <c r="AC4" s="10"/>
-      <c r="AD4" s="10">
+      <c r="AD4">
         <v>71.344999999999999</v>
       </c>
-      <c r="AE4" s="10"/>
-      <c r="AF4" s="10"/>
-      <c r="AG4" s="10"/>
-      <c r="AH4" s="10"/>
-      <c r="AI4" s="10">
+      <c r="AI4">
         <v>6.6583500000000004</v>
       </c>
-      <c r="AJ4" s="10"/>
-      <c r="AK4" s="10"/>
-      <c r="AL4" s="10"/>
-      <c r="AM4" s="10"/>
-      <c r="AN4" s="10"/>
-      <c r="AO4" s="10"/>
-      <c r="AP4" s="10"/>
-      <c r="AQ4" s="10"/>
-      <c r="AR4" s="10"/>
-      <c r="AS4" s="10"/>
-      <c r="AT4" s="10"/>
-      <c r="AU4" s="10"/>
-      <c r="AV4" s="10"/>
-      <c r="AW4" s="10">
+      <c r="AW4">
         <v>751.93135000000007</v>
       </c>
     </row>
-    <row r="5" spans="1:49" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A5" s="12">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="A5" s="11">
         <v>1977</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5">
         <v>673.928</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5">
         <v>250.64378333333335</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="11">
         <v>1972</v>
       </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10">
+      <c r="O5">
         <v>21.39235</v>
       </c>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10">
+      <c r="S5">
         <v>21.39235</v>
       </c>
-      <c r="Z5" s="12" t="s">
+      <c r="Z5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="AA5" s="10"/>
-      <c r="AB5" s="10"/>
-      <c r="AC5" s="10"/>
-      <c r="AD5" s="10">
+      <c r="AD5">
         <v>93.111999999999995</v>
       </c>
-      <c r="AE5" s="10"/>
-      <c r="AF5" s="10"/>
-      <c r="AG5" s="10"/>
-      <c r="AH5" s="10"/>
-      <c r="AI5" s="10"/>
-      <c r="AJ5" s="10"/>
-      <c r="AK5" s="10"/>
-      <c r="AL5" s="10"/>
-      <c r="AM5" s="10"/>
-      <c r="AN5" s="10"/>
-      <c r="AO5" s="10"/>
-      <c r="AP5" s="10"/>
-      <c r="AQ5" s="10"/>
-      <c r="AR5" s="10"/>
-      <c r="AS5" s="10"/>
-      <c r="AT5" s="10"/>
-      <c r="AU5" s="10"/>
-      <c r="AV5" s="10"/>
-      <c r="AW5" s="10">
+      <c r="AW5">
         <v>93.111999999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:49" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A6" s="12">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="A6" s="11">
         <v>1980</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6">
         <v>343.67250000000001</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6">
         <v>93.111999999999995</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="11">
         <v>1977</v>
       </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10">
+      <c r="I6">
         <v>673.928</v>
       </c>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10">
+      <c r="S6">
         <v>673.928</v>
       </c>
-      <c r="Z6" s="12" t="s">
+      <c r="Z6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="AA6" s="10"/>
-      <c r="AB6" s="10"/>
-      <c r="AC6" s="10">
+      <c r="AC6">
         <v>343.67250000000001</v>
       </c>
-      <c r="AD6" s="10"/>
-      <c r="AE6" s="10"/>
-      <c r="AF6" s="10"/>
-      <c r="AG6" s="10"/>
-      <c r="AH6" s="10"/>
-      <c r="AI6" s="10"/>
-      <c r="AJ6" s="10"/>
-      <c r="AK6" s="10"/>
-      <c r="AL6" s="10"/>
-      <c r="AM6" s="10"/>
-      <c r="AN6" s="10"/>
-      <c r="AO6" s="10"/>
-      <c r="AP6" s="10"/>
-      <c r="AQ6" s="10"/>
-      <c r="AR6" s="10"/>
-      <c r="AS6" s="10"/>
-      <c r="AT6" s="10"/>
-      <c r="AU6" s="10"/>
-      <c r="AV6" s="10"/>
-      <c r="AW6" s="10">
+      <c r="AW6">
         <v>343.67250000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:49" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A7" s="12">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="A7" s="11">
         <v>1982</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7">
         <v>164.45699999999999</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7">
         <v>343.67250000000001</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="11">
         <v>1980</v>
       </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10">
+      <c r="K7">
         <v>343.67250000000001</v>
       </c>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10">
+      <c r="S7">
         <v>343.67250000000001</v>
       </c>
-      <c r="Z7" s="12" t="s">
+      <c r="Z7" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="AA7" s="10"/>
-      <c r="AB7" s="10"/>
-      <c r="AC7" s="10"/>
-      <c r="AD7" s="10"/>
-      <c r="AE7" s="10"/>
-      <c r="AF7" s="10"/>
-      <c r="AG7" s="10"/>
-      <c r="AH7" s="10"/>
-      <c r="AI7" s="10"/>
-      <c r="AJ7" s="10"/>
-      <c r="AK7" s="10"/>
-      <c r="AL7" s="10"/>
-      <c r="AM7" s="10"/>
-      <c r="AN7" s="10">
+      <c r="AN7">
         <v>1051.3920000000001</v>
       </c>
-      <c r="AO7" s="10">
+      <c r="AO7">
         <v>3303.72</v>
       </c>
-      <c r="AP7" s="10"/>
-      <c r="AQ7" s="10"/>
-      <c r="AR7" s="10">
+      <c r="AR7">
         <v>2337.2159999999999</v>
       </c>
-      <c r="AS7" s="10"/>
-      <c r="AT7" s="10">
+      <c r="AT7">
         <v>525.79999999999995</v>
       </c>
-      <c r="AU7" s="10"/>
-      <c r="AV7" s="10">
+      <c r="AV7">
         <v>627.9</v>
       </c>
-      <c r="AW7" s="10">
+      <c r="AW7">
         <v>7846.0279999999993</v>
       </c>
     </row>
-    <row r="8" spans="1:49" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A8" s="12">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="A8" s="11">
         <v>1985</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8">
         <v>2964.9937199999999</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8">
         <v>1569.2055999999998</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="11">
         <v>1982</v>
       </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10">
+      <c r="I8">
         <v>71.344999999999999</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8">
         <v>93.111999999999995</v>
       </c>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10">
+      <c r="S8">
         <v>164.45699999999999</v>
       </c>
-      <c r="Z8" s="12" t="s">
+      <c r="Z8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="AA8" s="10"/>
-      <c r="AB8" s="10"/>
-      <c r="AC8" s="10"/>
-      <c r="AD8" s="10"/>
-      <c r="AE8" s="10"/>
-      <c r="AF8" s="10"/>
-      <c r="AG8" s="10">
+      <c r="AG8">
         <v>316.32144</v>
       </c>
-      <c r="AH8" s="10"/>
-      <c r="AI8" s="10"/>
-      <c r="AJ8" s="10"/>
-      <c r="AK8" s="10"/>
-      <c r="AL8" s="10"/>
-      <c r="AM8" s="10"/>
-      <c r="AN8" s="10"/>
-      <c r="AO8" s="10"/>
-      <c r="AP8" s="10"/>
-      <c r="AQ8" s="10"/>
-      <c r="AR8" s="10"/>
-      <c r="AS8" s="10"/>
-      <c r="AT8" s="10"/>
-      <c r="AU8" s="10"/>
-      <c r="AV8" s="10"/>
-      <c r="AW8" s="10">
+      <c r="AW8">
         <v>316.32144</v>
       </c>
     </row>
-    <row r="9" spans="1:49" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A9" s="12">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="A9" s="11">
         <v>1986</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9">
         <v>539.76400000000001</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9">
         <v>316.32144</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="11">
         <v>1985</v>
       </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10">
+      <c r="N9">
         <v>2964.9937199999999</v>
       </c>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10">
+      <c r="S9">
         <v>2964.9937199999999</v>
       </c>
-      <c r="Z9" s="12" t="s">
+      <c r="Z9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="AA9" s="10"/>
-      <c r="AB9" s="10"/>
-      <c r="AC9" s="10"/>
-      <c r="AD9" s="10"/>
-      <c r="AE9" s="10">
+      <c r="AE9">
         <v>2964.9937199999999</v>
       </c>
-      <c r="AF9" s="10"/>
-      <c r="AG9" s="10"/>
-      <c r="AH9" s="10">
+      <c r="AH9">
         <v>1851.0209</v>
       </c>
-      <c r="AI9" s="10"/>
-      <c r="AJ9" s="10"/>
-      <c r="AK9" s="10">
+      <c r="AK9">
         <v>1079.3795399999999</v>
       </c>
-      <c r="AL9" s="10"/>
-      <c r="AM9" s="10"/>
-      <c r="AN9" s="10">
+      <c r="AN9">
         <v>633.87318000000005</v>
       </c>
-      <c r="AO9" s="10"/>
-      <c r="AP9" s="10">
+      <c r="AP9">
         <v>3264.2539700000002</v>
       </c>
-      <c r="AQ9" s="10">
+      <c r="AQ9">
         <v>457.74491999999998</v>
       </c>
-      <c r="AR9" s="10"/>
-      <c r="AS9" s="10"/>
-      <c r="AT9" s="10">
+      <c r="AT9">
         <v>3187.7</v>
       </c>
-      <c r="AU9" s="10">
+      <c r="AU9">
         <v>516.11490000000003</v>
       </c>
-      <c r="AV9" s="10"/>
-      <c r="AW9" s="10">
+      <c r="AW9">
         <v>13955.081129999999</v>
       </c>
     </row>
-    <row r="10" spans="1:49" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A10" s="12">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="A10" s="11">
         <v>1989</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10">
         <v>1706.0879399999999</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10">
         <v>1744.3851412499998</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="11">
         <v>1986</v>
       </c>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10">
+      <c r="P10">
         <v>539.76400000000001</v>
       </c>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10">
+      <c r="S10">
         <v>539.76400000000001</v>
       </c>
-      <c r="Z10" s="12" t="s">
+      <c r="Z10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="AA10" s="10">
+      <c r="AA10">
         <v>21.39235</v>
       </c>
-      <c r="AB10" s="10"/>
-      <c r="AC10" s="10"/>
-      <c r="AD10" s="10"/>
-      <c r="AE10" s="10"/>
-      <c r="AF10" s="10"/>
-      <c r="AG10" s="10"/>
-      <c r="AH10" s="10"/>
-      <c r="AI10" s="10"/>
-      <c r="AJ10" s="10"/>
-      <c r="AK10" s="10"/>
-      <c r="AL10" s="10"/>
-      <c r="AM10" s="10"/>
-      <c r="AN10" s="10"/>
-      <c r="AO10" s="10"/>
-      <c r="AP10" s="10"/>
-      <c r="AQ10" s="10"/>
-      <c r="AR10" s="10"/>
-      <c r="AS10" s="10"/>
-      <c r="AT10" s="10"/>
-      <c r="AU10" s="10"/>
-      <c r="AV10" s="10"/>
-      <c r="AW10" s="10">
+      <c r="AW10">
         <v>21.39235</v>
       </c>
     </row>
-    <row r="11" spans="1:49" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A11" s="12">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="A11" s="11">
         <v>1991</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11">
         <v>1997.16626</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11">
         <v>21.39235</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="11">
         <v>1989</v>
       </c>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10">
+      <c r="M11">
         <v>316.32144</v>
       </c>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10">
+      <c r="P11">
         <v>1389.7665</v>
       </c>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10">
+      <c r="S11">
         <v>1706.0879399999999</v>
       </c>
-      <c r="Z11" s="12" t="s">
+      <c r="Z11" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="AA11" s="10"/>
-      <c r="AB11" s="10"/>
-      <c r="AC11" s="10"/>
-      <c r="AD11" s="10"/>
-      <c r="AE11" s="10"/>
-      <c r="AF11" s="10">
+      <c r="AF11">
         <v>539.76400000000001</v>
       </c>
-      <c r="AG11" s="10">
+      <c r="AG11">
         <v>1389.7665</v>
       </c>
-      <c r="AH11" s="10"/>
-      <c r="AI11" s="10"/>
-      <c r="AJ11" s="10">
+      <c r="AJ11">
         <v>630.96713999999997</v>
       </c>
-      <c r="AK11" s="10"/>
-      <c r="AL11" s="10">
+      <c r="AL11">
         <v>281.25878</v>
       </c>
-      <c r="AM11" s="10"/>
-      <c r="AN11" s="10"/>
-      <c r="AO11" s="10"/>
-      <c r="AP11" s="10"/>
-      <c r="AQ11" s="10"/>
-      <c r="AR11" s="10"/>
-      <c r="AS11" s="10"/>
-      <c r="AT11" s="10"/>
-      <c r="AU11" s="10"/>
-      <c r="AV11" s="10"/>
-      <c r="AW11" s="10">
+      <c r="AW11">
         <v>2841.7564199999997</v>
       </c>
     </row>
-    <row r="12" spans="1:49" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A12" s="12">
+    <row r="12" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="A12" s="11">
         <v>1993</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12">
         <v>256.05034999999998</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12">
         <v>710.43910499999993</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="11">
         <v>1991</v>
       </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10">
+      <c r="N12">
         <v>1851.0209</v>
       </c>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10">
+      <c r="Q12">
         <v>146.14536000000001</v>
       </c>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10">
+      <c r="S12">
         <v>1997.16626</v>
       </c>
-      <c r="Z12" s="12" t="s">
+      <c r="Z12" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="AA12" s="10"/>
-      <c r="AB12" s="10"/>
-      <c r="AC12" s="10"/>
-      <c r="AD12" s="10"/>
-      <c r="AE12" s="10"/>
-      <c r="AF12" s="10"/>
-      <c r="AG12" s="10"/>
-      <c r="AH12" s="10">
+      <c r="AH12">
         <v>146.14536000000001</v>
       </c>
-      <c r="AI12" s="10"/>
-      <c r="AJ12" s="10"/>
-      <c r="AK12" s="10"/>
-      <c r="AL12" s="10"/>
-      <c r="AM12" s="10"/>
-      <c r="AN12" s="10"/>
-      <c r="AO12" s="10"/>
-      <c r="AP12" s="10"/>
-      <c r="AQ12" s="10"/>
-      <c r="AR12" s="10"/>
-      <c r="AS12" s="10"/>
-      <c r="AT12" s="10"/>
-      <c r="AU12" s="10"/>
-      <c r="AV12" s="10"/>
-      <c r="AW12" s="10">
+      <c r="AW12">
         <v>146.14536000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:49" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A13" s="12">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="A13" s="11">
         <v>1995</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13">
         <v>5830.0798599999998</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13">
         <v>146.14536000000001</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="11">
         <v>1993</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13">
         <v>249.392</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I13">
         <v>6.6583500000000004</v>
       </c>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10">
+      <c r="S13">
         <v>256.05034999999998</v>
       </c>
-      <c r="Z13" s="12" t="s">
+      <c r="Z13" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="AA13" s="10"/>
-      <c r="AB13" s="10"/>
-      <c r="AC13" s="10"/>
-      <c r="AD13" s="10"/>
-      <c r="AE13" s="10"/>
-      <c r="AF13" s="10"/>
-      <c r="AG13" s="10"/>
-      <c r="AH13" s="10"/>
-      <c r="AI13" s="10"/>
-      <c r="AJ13" s="10">
+      <c r="AJ13">
         <v>5199.1127200000001</v>
       </c>
-      <c r="AK13" s="10"/>
-      <c r="AL13" s="10"/>
-      <c r="AM13" s="10">
+      <c r="AM13">
         <v>7088.1768000000002</v>
       </c>
-      <c r="AN13" s="10"/>
-      <c r="AO13" s="10"/>
-      <c r="AP13" s="10">
+      <c r="AP13">
         <v>5625.6758</v>
       </c>
-      <c r="AQ13" s="10"/>
-      <c r="AR13" s="10">
+      <c r="AR13">
         <v>4449.6000000000004</v>
       </c>
-      <c r="AS13" s="10">
+      <c r="AS13">
         <v>730.47299999999996</v>
       </c>
-      <c r="AT13" s="10"/>
-      <c r="AU13" s="10"/>
-      <c r="AV13" s="10">
+      <c r="AV13">
         <v>1532.16</v>
       </c>
-      <c r="AW13" s="10">
+      <c r="AW13">
         <v>24625.19832</v>
       </c>
     </row>
-    <row r="14" spans="1:49" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A14" s="12">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="A14" s="11">
         <v>1996</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14">
         <v>1079.3795399999999</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14">
         <v>4104.1997199999996</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="11">
         <v>1995</v>
       </c>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10">
+      <c r="P14">
         <v>630.96713999999997</v>
       </c>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10">
+      <c r="R14">
         <v>5199.1127200000001</v>
       </c>
-      <c r="S14" s="10">
+      <c r="S14">
         <v>5830.0798599999998</v>
       </c>
-      <c r="Z14" s="12" t="s">
+      <c r="Z14" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="AA14" s="10">
+      <c r="AA14">
         <v>21.39235</v>
       </c>
-      <c r="AB14" s="10">
+      <c r="AB14">
         <v>673.928</v>
       </c>
-      <c r="AC14" s="10">
+      <c r="AC14">
         <v>343.67250000000001</v>
       </c>
-      <c r="AD14" s="10">
+      <c r="AD14">
         <v>164.45699999999999</v>
       </c>
-      <c r="AE14" s="10">
+      <c r="AE14">
         <v>2964.9937199999999</v>
       </c>
-      <c r="AF14" s="10">
+      <c r="AF14">
         <v>539.76400000000001</v>
       </c>
-      <c r="AG14" s="10">
+      <c r="AG14">
         <v>1706.0879399999999</v>
       </c>
-      <c r="AH14" s="10">
+      <c r="AH14">
         <v>1997.16626</v>
       </c>
-      <c r="AI14" s="10">
+      <c r="AI14">
         <v>256.05034999999998</v>
       </c>
-      <c r="AJ14" s="10">
+      <c r="AJ14">
         <v>5830.0798599999998</v>
       </c>
-      <c r="AK14" s="10">
+      <c r="AK14">
         <v>1079.3795399999999</v>
       </c>
-      <c r="AL14" s="10">
+      <c r="AL14">
         <v>281.25878</v>
       </c>
-      <c r="AM14" s="10">
+      <c r="AM14">
         <v>7088.1768000000002</v>
       </c>
-      <c r="AN14" s="10">
+      <c r="AN14">
         <v>1685.2651800000001</v>
       </c>
-      <c r="AO14" s="10">
+      <c r="AO14">
         <v>3303.72</v>
       </c>
-      <c r="AP14" s="10">
+      <c r="AP14">
         <v>8889.9297700000006</v>
       </c>
-      <c r="AQ14" s="10">
+      <c r="AQ14">
         <v>457.74491999999998</v>
       </c>
-      <c r="AR14" s="10">
+      <c r="AR14">
         <v>6786.8160000000007</v>
       </c>
-      <c r="AS14" s="10">
+      <c r="AS14">
         <v>730.47299999999996</v>
       </c>
-      <c r="AT14" s="10">
+      <c r="AT14">
         <v>3713.5</v>
       </c>
-      <c r="AU14" s="10">
+      <c r="AU14">
         <v>516.11490000000003</v>
       </c>
-      <c r="AV14" s="10">
+      <c r="AV14">
         <v>2160.06</v>
       </c>
-      <c r="AW14" s="10">
+      <c r="AW14">
         <v>51190.030869999995</v>
       </c>
     </row>
-    <row r="15" spans="1:49" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A15" s="12">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="A15" s="11">
         <v>1999</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15">
         <v>281.25878</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15">
         <v>1599.6884646874998</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="11">
         <v>1996</v>
       </c>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10">
+      <c r="N15">
         <v>1079.3795399999999</v>
       </c>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10">
+      <c r="S15">
         <v>1079.3795399999999</v>
       </c>
     </row>
-    <row r="16" spans="1:49" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A16" s="12">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="A16" s="11">
         <v>2000</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16">
         <v>7088.1768000000002</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="11">
         <v>1999</v>
       </c>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10">
+      <c r="P16">
         <v>281.25878</v>
       </c>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10">
+      <c r="S16">
         <v>281.25878</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A17" s="12">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A17" s="11">
         <v>2001</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17">
         <v>1685.2651800000001</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="11">
         <v>2000</v>
       </c>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10">
+      <c r="R17">
         <v>7088.1768000000002</v>
       </c>
-      <c r="S17" s="10">
+      <c r="S17">
         <v>7088.1768000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A18" s="12">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A18" s="11">
         <v>2005</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18">
         <v>3303.72</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="10" t="s">
         <v>52</v>
       </c>
       <c r="E18" t="s">
         <v>54</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="11">
         <v>2001</v>
       </c>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10">
+      <c r="L18">
         <v>1051.3920000000001</v>
       </c>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10">
+      <c r="N18">
         <v>633.87318000000005</v>
       </c>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10">
+      <c r="S18">
         <v>1685.2651800000001</v>
       </c>
     </row>
-    <row r="19" spans="1:27" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A19" s="12">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A19" s="11">
         <v>2006</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19">
         <v>8889.9297700000006</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19">
         <v>1</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="11">
         <v>2005</v>
       </c>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10">
+      <c r="L19">
         <v>3303.72</v>
       </c>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10">
+      <c r="S19">
         <v>3303.72</v>
       </c>
     </row>
-    <row r="20" spans="1:27" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A20" s="12">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A20" s="11">
         <v>2012</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20">
         <v>457.74491999999998</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20">
         <v>3</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G20" s="11">
         <v>2006</v>
       </c>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10">
+      <c r="N20">
         <v>3264.2539700000002</v>
       </c>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10">
+      <c r="R20">
         <v>5625.6758</v>
       </c>
-      <c r="S20" s="10">
+      <c r="S20">
         <v>8889.9297700000006</v>
       </c>
     </row>
-    <row r="21" spans="1:27" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A21" s="12">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A21" s="11">
         <v>2013</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21">
         <v>6786.8160000000007</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21">
         <v>1</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G21" s="11">
         <v>2012</v>
       </c>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10">
+      <c r="N21">
         <v>457.74491999999998</v>
       </c>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="10">
+      <c r="S21">
         <v>457.74491999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:27" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A22" s="12">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A22" s="11">
         <v>2016</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22">
         <v>730.47299999999996</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22">
         <v>1</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G22" s="11">
         <v>2013</v>
       </c>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10">
+      <c r="L22">
         <v>2337.2159999999999</v>
       </c>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10">
+      <c r="R22">
         <v>4449.6000000000004</v>
       </c>
-      <c r="S22" s="10">
+      <c r="S22">
         <v>6786.8160000000007</v>
       </c>
     </row>
-    <row r="23" spans="1:27" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A23" s="12">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A23" s="11">
         <v>2017</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23">
         <v>3713.5</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23">
         <v>5</v>
       </c>
-      <c r="G23" s="12">
+      <c r="G23" s="11">
         <v>2016</v>
       </c>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10">
+      <c r="R23">
         <v>730.47299999999996</v>
       </c>
-      <c r="S23" s="10">
+      <c r="S23">
         <v>730.47299999999996</v>
       </c>
     </row>
-    <row r="24" spans="1:27" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A24" s="12">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A24" s="11">
         <v>2019</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24">
         <v>516.11490000000003</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E24">
         <v>1</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G24" s="11">
         <v>2017</v>
       </c>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10">
+      <c r="L24">
         <v>525.79999999999995</v>
       </c>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10">
+      <c r="N24">
         <v>3187.7</v>
       </c>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="10">
+      <c r="S24">
         <v>3713.5</v>
       </c>
     </row>
-    <row r="25" spans="1:27" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A25" s="12">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A25" s="11">
         <v>2020</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25">
         <v>2160.06</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E25">
         <v>8</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G25" s="11">
         <v>2019</v>
       </c>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10">
+      <c r="N25">
         <v>516.11490000000003</v>
       </c>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="10"/>
-      <c r="S25" s="10">
+      <c r="S25">
         <v>516.11490000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:27" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A26" s="12" t="s">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A26" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26">
         <v>51190.030869999995</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E26">
         <v>1</v>
       </c>
-      <c r="G26" s="12">
+      <c r="G26" s="11">
         <v>2020</v>
       </c>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10">
+      <c r="L26">
         <v>627.9</v>
       </c>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="10">
+      <c r="R26">
         <v>1532.16</v>
       </c>
-      <c r="S26" s="10">
+      <c r="S26">
         <v>2160.06</v>
       </c>
     </row>
-    <row r="27" spans="1:27" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D27" s="12" t="s">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="D27" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E27">
         <v>4</v>
       </c>
-      <c r="G27" s="12" t="s">
+      <c r="G27" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="H27" s="10">
+      <c r="H27">
         <v>249.392</v>
       </c>
-      <c r="I27" s="10">
+      <c r="I27">
         <v>751.93135000000007</v>
       </c>
-      <c r="J27" s="10">
+      <c r="J27">
         <v>93.111999999999995</v>
       </c>
-      <c r="K27" s="10">
+      <c r="K27">
         <v>343.67250000000001</v>
       </c>
-      <c r="L27" s="10">
+      <c r="L27">
         <v>7846.0279999999993</v>
       </c>
-      <c r="M27" s="10">
+      <c r="M27">
         <v>316.32144</v>
       </c>
-      <c r="N27" s="10">
+      <c r="N27">
         <v>13955.081129999999</v>
       </c>
-      <c r="O27" s="10">
+      <c r="O27">
         <v>21.39235</v>
       </c>
-      <c r="P27" s="10">
+      <c r="P27">
         <v>2841.7564199999997</v>
       </c>
-      <c r="Q27" s="10">
+      <c r="Q27">
         <v>146.14536000000001</v>
       </c>
-      <c r="R27" s="10">
+      <c r="R27">
         <v>24625.19832</v>
       </c>
-      <c r="S27" s="10">
+      <c r="S27">
         <v>51190.030869999995</v>
       </c>
-      <c r="Z27" s="11" t="s">
+      <c r="Z27" s="10" t="s">
         <v>52</v>
       </c>
       <c r="AA27" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:27" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D28" s="12" t="s">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="D28" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E28" s="10">
+      <c r="E28">
         <v>1</v>
       </c>
-      <c r="Z28" s="12">
-        <v>1977</v>
-      </c>
-      <c r="AA28" s="10">
-        <v>673.928</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D29" s="12" t="s">
+      <c r="Z28" s="11">
+        <v>1985</v>
+      </c>
+      <c r="AA28" s="14">
+        <v>2964.9937199999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="D29" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E29" s="10">
+      <c r="E29">
         <v>6</v>
       </c>
-      <c r="Z29" s="12">
-        <v>1982</v>
-      </c>
-      <c r="AA29" s="10">
-        <v>71.344999999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="D30" s="12" t="s">
+      <c r="Z29" s="11">
+        <v>1991</v>
+      </c>
+      <c r="AA29" s="14">
+        <v>1851.0209</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="D30" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E30" s="10">
+      <c r="E30">
         <v>32</v>
       </c>
-      <c r="Z30" s="12">
-        <v>1993</v>
-      </c>
-      <c r="AA30" s="10">
-        <v>6.6583500000000004</v>
-      </c>
-    </row>
-    <row r="31" spans="1:27" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="Z31" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA31" s="10">
-        <v>250.64378333333335</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27" ht="17.25" x14ac:dyDescent="0.35"/>
-    <row r="33" spans="1:24" ht="17.25" x14ac:dyDescent="0.35"/>
-    <row r="34" spans="1:24" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A34" s="11" t="s">
+      <c r="Z30" s="11">
+        <v>1996</v>
+      </c>
+      <c r="AA30" s="14">
+        <v>1079.3795399999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="Z31" s="11">
+        <v>2001</v>
+      </c>
+      <c r="AA31" s="14">
+        <v>633.87318000000005</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="Z32" s="11">
+        <v>2006</v>
+      </c>
+      <c r="AA32" s="14">
+        <v>3264.2539700000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="Z33" s="11">
+        <v>2012</v>
+      </c>
+      <c r="AA33" s="14">
+        <v>457.74491999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A34" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="10" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="35" spans="1:24" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A35" s="11" t="s">
+      <c r="Z34" s="11">
+        <v>2017</v>
+      </c>
+      <c r="AA34" s="14">
+        <v>3187.7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A35" s="10" t="s">
         <v>52</v>
       </c>
       <c r="B35">
@@ -16093,480 +15597,281 @@
       <c r="X35" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="36" spans="1:24" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A36" s="12" t="s">
+      <c r="Z35" s="11">
+        <v>2019</v>
+      </c>
+      <c r="AA35" s="14">
+        <v>516.11490000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A36" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10">
+      <c r="J36">
         <v>1246.96</v>
       </c>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10"/>
-      <c r="O36" s="10"/>
-      <c r="P36" s="10"/>
-      <c r="Q36" s="10"/>
-      <c r="R36" s="10"/>
-      <c r="S36" s="10"/>
-      <c r="T36" s="10"/>
-      <c r="U36" s="10"/>
-      <c r="V36" s="10"/>
-      <c r="W36" s="10"/>
-      <c r="X36" s="10">
+      <c r="X36">
         <v>1246.96</v>
       </c>
-    </row>
-    <row r="37" spans="1:24" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A37" s="12" t="s">
+      <c r="Z36" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA36" s="14">
+        <v>1744.3851412499998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A37" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10">
+      <c r="C37">
         <v>842.41</v>
       </c>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10">
+      <c r="E37">
         <v>713.45</v>
       </c>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10">
+      <c r="J37">
         <v>443.89</v>
       </c>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
-      <c r="O37" s="10"/>
-      <c r="P37" s="10"/>
-      <c r="Q37" s="10"/>
-      <c r="R37" s="10"/>
-      <c r="S37" s="10"/>
-      <c r="T37" s="10"/>
-      <c r="U37" s="10"/>
-      <c r="V37" s="10"/>
-      <c r="W37" s="10"/>
-      <c r="X37" s="10">
+      <c r="X37">
         <v>1999.75</v>
       </c>
     </row>
-    <row r="38" spans="1:24" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A38" s="12" t="s">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A38" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10">
+      <c r="E38">
         <v>465.56</v>
       </c>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="10"/>
-      <c r="P38" s="10"/>
-      <c r="Q38" s="10"/>
-      <c r="R38" s="10"/>
-      <c r="S38" s="10"/>
-      <c r="T38" s="10"/>
-      <c r="U38" s="10"/>
-      <c r="V38" s="10"/>
-      <c r="W38" s="10"/>
-      <c r="X38" s="10">
+      <c r="X38">
         <v>465.56</v>
       </c>
     </row>
-    <row r="39" spans="1:24" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A39" s="12" t="s">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A39" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10">
+      <c r="D39">
         <v>916.46</v>
       </c>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="10"/>
-      <c r="Q39" s="10"/>
-      <c r="R39" s="10"/>
-      <c r="S39" s="10"/>
-      <c r="T39" s="10"/>
-      <c r="U39" s="10"/>
-      <c r="V39" s="10"/>
-      <c r="W39" s="10"/>
-      <c r="X39" s="10">
+      <c r="X39">
         <v>916.46</v>
       </c>
     </row>
-    <row r="40" spans="1:24" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A40" s="12" t="s">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A40" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="10">
+      <c r="O40">
         <v>438.08</v>
       </c>
-      <c r="P40" s="10">
+      <c r="P40">
         <v>393.3</v>
       </c>
-      <c r="Q40" s="10"/>
-      <c r="R40" s="10"/>
-      <c r="S40" s="10">
+      <c r="S40">
         <v>556.48</v>
       </c>
-      <c r="T40" s="10"/>
-      <c r="U40" s="10">
+      <c r="U40">
         <v>525.79999999999995</v>
       </c>
-      <c r="V40" s="10"/>
-      <c r="W40" s="10">
+      <c r="W40">
         <v>299</v>
       </c>
-      <c r="X40" s="10">
+      <c r="X40">
         <v>2212.66</v>
       </c>
     </row>
-    <row r="41" spans="1:24" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A41" s="12" t="s">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A41" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10">
+      <c r="H41">
         <v>415.12</v>
       </c>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="10"/>
-      <c r="P41" s="10"/>
-      <c r="Q41" s="10"/>
-      <c r="R41" s="10"/>
-      <c r="S41" s="10"/>
-      <c r="T41" s="10"/>
-      <c r="U41" s="10"/>
-      <c r="V41" s="10"/>
-      <c r="W41" s="10"/>
-      <c r="X41" s="10">
+      <c r="X41">
         <v>415.12</v>
       </c>
     </row>
-    <row r="42" spans="1:24" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A42" s="12" t="s">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A42" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10">
+      <c r="F42">
         <v>478.92</v>
       </c>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10">
+      <c r="I42">
         <v>376.99</v>
       </c>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="10">
+      <c r="L42">
         <v>327.78</v>
       </c>
-      <c r="M42" s="10"/>
-      <c r="N42" s="10"/>
-      <c r="O42" s="10">
+      <c r="O42">
         <v>291.57</v>
       </c>
-      <c r="P42" s="10"/>
-      <c r="Q42" s="10">
+      <c r="Q42">
         <v>321.19</v>
       </c>
-      <c r="R42" s="10">
+      <c r="R42">
         <v>337.57</v>
       </c>
-      <c r="S42" s="10"/>
-      <c r="T42" s="10"/>
-      <c r="U42" s="10">
+      <c r="U42">
         <v>318.77</v>
       </c>
-      <c r="V42" s="10">
+      <c r="V42">
         <v>201.45</v>
       </c>
-      <c r="W42" s="10"/>
-      <c r="X42" s="10">
+      <c r="X42">
         <v>2654.24</v>
       </c>
     </row>
-    <row r="43" spans="1:24" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A43" s="12" t="s">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A43" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B43" s="10">
+      <c r="B43">
         <v>611.21</v>
       </c>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
-      <c r="O43" s="10"/>
-      <c r="P43" s="10"/>
-      <c r="Q43" s="10"/>
-      <c r="R43" s="10"/>
-      <c r="S43" s="10"/>
-      <c r="T43" s="10"/>
-      <c r="U43" s="10"/>
-      <c r="V43" s="10"/>
-      <c r="W43" s="10"/>
-      <c r="X43" s="10">
+      <c r="X43">
         <v>611.21</v>
       </c>
     </row>
-    <row r="44" spans="1:24" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A44" s="12" t="s">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A44" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10">
+      <c r="G44">
         <v>469.36</v>
       </c>
-      <c r="H44" s="10">
+      <c r="H44">
         <v>394.26</v>
       </c>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10">
+      <c r="K44">
         <v>681.39</v>
       </c>
-      <c r="L44" s="10"/>
-      <c r="M44" s="10">
+      <c r="M44">
         <v>308.06</v>
       </c>
-      <c r="N44" s="10"/>
-      <c r="O44" s="10"/>
-      <c r="P44" s="10"/>
-      <c r="Q44" s="10"/>
-      <c r="R44" s="10"/>
-      <c r="S44" s="10"/>
-      <c r="T44" s="10"/>
-      <c r="U44" s="10"/>
-      <c r="V44" s="10"/>
-      <c r="W44" s="10"/>
-      <c r="X44" s="10">
+      <c r="X44">
         <v>1853.07</v>
       </c>
     </row>
-    <row r="45" spans="1:24" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A45" s="12" t="s">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A45" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10">
+      <c r="I45">
         <v>1238.52</v>
       </c>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
-      <c r="L45" s="10"/>
-      <c r="M45" s="10"/>
-      <c r="N45" s="10"/>
-      <c r="O45" s="10"/>
-      <c r="P45" s="10"/>
-      <c r="Q45" s="10"/>
-      <c r="R45" s="10"/>
-      <c r="S45" s="10"/>
-      <c r="T45" s="10"/>
-      <c r="U45" s="10"/>
-      <c r="V45" s="10"/>
-      <c r="W45" s="10"/>
-      <c r="X45" s="10">
+      <c r="X45">
         <v>1238.52</v>
       </c>
     </row>
-    <row r="46" spans="1:24" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A46" s="12" t="s">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A46" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10">
+      <c r="K46">
         <v>507.28</v>
       </c>
-      <c r="L46" s="10"/>
-      <c r="M46" s="10"/>
-      <c r="N46" s="10">
+      <c r="N46">
         <v>446.64</v>
       </c>
-      <c r="O46" s="10"/>
-      <c r="P46" s="10"/>
-      <c r="Q46" s="10">
+      <c r="Q46">
         <v>643.66999999999996</v>
       </c>
-      <c r="R46" s="10"/>
-      <c r="S46" s="10">
+      <c r="S46">
         <v>444.96</v>
       </c>
-      <c r="T46" s="10">
+      <c r="T46">
         <v>429.69</v>
       </c>
-      <c r="U46" s="10"/>
-      <c r="V46" s="10"/>
-      <c r="W46" s="10">
+      <c r="W46">
         <v>399</v>
       </c>
-      <c r="X46" s="10">
+      <c r="X46">
         <v>2871.24</v>
       </c>
     </row>
-    <row r="47" spans="1:24" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A47" s="12" t="s">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A47" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B47" s="10">
+      <c r="B47">
         <v>611.21</v>
       </c>
-      <c r="C47" s="10">
+      <c r="C47">
         <v>842.41</v>
       </c>
-      <c r="D47" s="10">
+      <c r="D47">
         <v>916.46</v>
       </c>
-      <c r="E47" s="10">
+      <c r="E47">
         <v>1179.01</v>
       </c>
-      <c r="F47" s="10">
+      <c r="F47">
         <v>478.92</v>
       </c>
-      <c r="G47" s="10">
+      <c r="G47">
         <v>469.36</v>
       </c>
-      <c r="H47" s="10">
+      <c r="H47">
         <v>809.38</v>
       </c>
-      <c r="I47" s="10">
+      <c r="I47">
         <v>1615.51</v>
       </c>
-      <c r="J47" s="10">
+      <c r="J47">
         <v>1690.85</v>
       </c>
-      <c r="K47" s="10">
+      <c r="K47">
         <v>1188.67</v>
       </c>
-      <c r="L47" s="10">
+      <c r="L47">
         <v>327.78</v>
       </c>
-      <c r="M47" s="10">
+      <c r="M47">
         <v>308.06</v>
       </c>
-      <c r="N47" s="10">
+      <c r="N47">
         <v>446.64</v>
       </c>
-      <c r="O47" s="10">
+      <c r="O47">
         <v>729.65</v>
       </c>
-      <c r="P47" s="10">
+      <c r="P47">
         <v>393.3</v>
       </c>
-      <c r="Q47" s="10">
+      <c r="Q47">
         <v>964.8599999999999</v>
       </c>
-      <c r="R47" s="10">
+      <c r="R47">
         <v>337.57</v>
       </c>
-      <c r="S47" s="10">
+      <c r="S47">
         <v>1001.44</v>
       </c>
-      <c r="T47" s="10">
+      <c r="T47">
         <v>429.69</v>
       </c>
-      <c r="U47" s="10">
+      <c r="U47">
         <v>844.56999999999994</v>
       </c>
-      <c r="V47" s="10">
+      <c r="V47">
         <v>201.45</v>
       </c>
-      <c r="W47" s="10">
+      <c r="W47">
         <v>698</v>
       </c>
-      <c r="X47" s="10">
+      <c r="X47">
         <v>16484.79</v>
       </c>
     </row>
-    <row r="48" spans="1:24" ht="17.25" x14ac:dyDescent="0.35"/>
-    <row r="49" spans="1:23" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A49" s="12" t="str">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A49" s="11" t="str">
         <f>Dash1!E21</f>
-        <v>Nintendo</v>
+        <v>Sega</v>
       </c>
       <c r="B49">
         <f>INDEX(B36:B46,MATCH($A$49,$A$36:$A$46,0))</f>
@@ -16586,19 +15891,19 @@
       </c>
       <c r="F49">
         <f t="shared" si="0"/>
-        <v>478.92</v>
+        <v>0</v>
       </c>
       <c r="G49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>469.36</v>
       </c>
       <c r="H49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>394.26</v>
       </c>
       <c r="I49">
         <f t="shared" si="0"/>
-        <v>376.99</v>
+        <v>0</v>
       </c>
       <c r="J49">
         <f t="shared" si="0"/>
@@ -16606,15 +15911,15 @@
       </c>
       <c r="K49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>681.39</v>
       </c>
       <c r="L49">
         <f t="shared" si="0"/>
-        <v>327.78</v>
+        <v>0</v>
       </c>
       <c r="M49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>308.06</v>
       </c>
       <c r="N49">
         <f t="shared" si="0"/>
@@ -16622,7 +15927,7 @@
       </c>
       <c r="O49">
         <f t="shared" si="0"/>
-        <v>291.57</v>
+        <v>0</v>
       </c>
       <c r="P49">
         <f t="shared" si="0"/>
@@ -16630,11 +15935,11 @@
       </c>
       <c r="Q49">
         <f t="shared" si="0"/>
-        <v>321.19</v>
+        <v>0</v>
       </c>
       <c r="R49">
         <f t="shared" si="0"/>
-        <v>337.57</v>
+        <v>0</v>
       </c>
       <c r="S49">
         <f t="shared" si="0"/>
@@ -16646,21 +15951,21 @@
       </c>
       <c r="U49">
         <f t="shared" si="0"/>
-        <v>318.77</v>
+        <v>0</v>
       </c>
       <c r="V49">
         <f t="shared" si="0"/>
-        <v>201.45</v>
+        <v>0</v>
       </c>
       <c r="W49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:23" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A50" t="str">
         <f>Dash1!E21</f>
-        <v>Nintendo</v>
+        <v>Sega</v>
       </c>
       <c r="B50">
         <f>INDEX(AA3:AA13,MATCH($A$50,$Z$3:$Z$13,0))</f>
@@ -16680,19 +15985,19 @@
       </c>
       <c r="F50">
         <f t="shared" si="1"/>
-        <v>2964.9937199999999</v>
+        <v>0</v>
       </c>
       <c r="G50">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>539.76400000000001</v>
       </c>
       <c r="H50">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1389.7665</v>
       </c>
       <c r="I50">
         <f t="shared" si="1"/>
-        <v>1851.0209</v>
+        <v>0</v>
       </c>
       <c r="J50">
         <f t="shared" si="1"/>
@@ -16700,15 +16005,15 @@
       </c>
       <c r="K50">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>630.96713999999997</v>
       </c>
       <c r="L50">
         <f t="shared" si="1"/>
-        <v>1079.3795399999999</v>
+        <v>0</v>
       </c>
       <c r="M50">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>281.25878</v>
       </c>
       <c r="N50">
         <f t="shared" si="1"/>
@@ -16716,7 +16021,7 @@
       </c>
       <c r="O50">
         <f t="shared" si="1"/>
-        <v>633.87318000000005</v>
+        <v>0</v>
       </c>
       <c r="P50">
         <f t="shared" si="1"/>
@@ -16724,11 +16029,11 @@
       </c>
       <c r="Q50">
         <f t="shared" si="1"/>
-        <v>3264.2539700000002</v>
+        <v>0</v>
       </c>
       <c r="R50">
         <f t="shared" si="1"/>
-        <v>457.74491999999998</v>
+        <v>0</v>
       </c>
       <c r="S50">
         <f t="shared" si="1"/>
@@ -16740,286 +16045,270 @@
       </c>
       <c r="U50">
         <f t="shared" si="1"/>
-        <v>3187.7</v>
+        <v>0</v>
       </c>
       <c r="V50">
         <f t="shared" si="1"/>
-        <v>516.11490000000003</v>
+        <v>0</v>
       </c>
       <c r="W50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="17.25" x14ac:dyDescent="0.35"/>
-    <row r="52" spans="1:23" ht="17.25" x14ac:dyDescent="0.35"/>
-    <row r="53" spans="1:23" ht="17.25" x14ac:dyDescent="0.35"/>
-    <row r="54" spans="1:23" ht="17.25" x14ac:dyDescent="0.35"/>
-    <row r="55" spans="1:23" ht="17.25" x14ac:dyDescent="0.35"/>
-    <row r="56" spans="1:23" ht="17.25" x14ac:dyDescent="0.35"/>
-    <row r="57" spans="1:23" ht="17.25" x14ac:dyDescent="0.35"/>
-    <row r="58" spans="1:23" ht="17.25" x14ac:dyDescent="0.35"/>
-    <row r="59" spans="1:23" ht="17.25" x14ac:dyDescent="0.35"/>
-    <row r="60" spans="1:23" ht="17.25" x14ac:dyDescent="0.35"/>
-    <row r="61" spans="1:23" ht="17.25" x14ac:dyDescent="0.35"/>
-    <row r="62" spans="1:23" ht="17.25" x14ac:dyDescent="0.35"/>
-    <row r="66" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H66" s="10"/>
-      <c r="I66" s="10"/>
-    </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A91" s="10">
+      <c r="A91">
         <v>1246.96</v>
       </c>
-      <c r="B91" s="10">
+      <c r="B91">
         <v>2000000</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A92" s="10">
+      <c r="A92">
         <v>842.41</v>
       </c>
-      <c r="B92" s="10">
+      <c r="B92">
         <v>8000000</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A93" s="10">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93">
         <v>713.45</v>
       </c>
-      <c r="B93" s="10">
+      <c r="B93">
         <v>1000000</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A94" s="10">
+      <c r="A94">
         <v>443.89</v>
       </c>
-      <c r="B94" s="10">
+      <c r="B94">
         <v>150000</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A95" s="10">
+      <c r="A95">
         <v>465.56</v>
       </c>
-      <c r="B95" s="10">
+      <c r="B95">
         <v>2000000</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A96" s="10">
+      <c r="A96">
         <v>308.06</v>
       </c>
-      <c r="B96" s="10">
+      <c r="B96">
         <v>9130000</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A97" s="10">
+      <c r="A97">
         <v>291.57</v>
       </c>
-      <c r="B97" s="10">
+      <c r="B97">
         <v>21740000</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A98" s="10">
+      <c r="A98">
         <v>916.46</v>
       </c>
-      <c r="B98" s="10">
+      <c r="B98">
         <v>3750000</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A99" s="10">
+      <c r="A99">
         <v>611.21</v>
       </c>
-      <c r="B99" s="10">
+      <c r="B99">
         <v>350000</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A100" s="10">
+      <c r="A100">
         <v>1238.52</v>
       </c>
-      <c r="B100" s="10">
+      <c r="B100">
         <v>1180000</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A101" s="10">
+      <c r="A101">
         <v>478.92</v>
       </c>
-      <c r="B101" s="10">
+      <c r="B101">
         <v>61910000</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A102" s="10">
+      <c r="A102">
         <v>327.78</v>
       </c>
-      <c r="B102" s="10">
+      <c r="B102">
         <v>32930000</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A103" s="10">
+      <c r="A103">
         <v>318.77</v>
       </c>
-      <c r="B103" s="10">
+      <c r="B103">
         <v>105000000</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A104" s="10">
+      <c r="A104">
         <v>201.45</v>
       </c>
-      <c r="B104" s="10">
+      <c r="B104">
         <v>21020000</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A105" s="10">
+      <c r="A105">
         <v>507.28</v>
       </c>
-      <c r="B105" s="10">
+      <c r="B105">
         <v>102490000</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A106" s="10">
+      <c r="A106">
         <v>446.64</v>
       </c>
-      <c r="B106" s="10">
+      <c r="B106">
         <v>158700000</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A107" s="10">
+      <c r="A107">
         <v>643.66999999999996</v>
       </c>
-      <c r="B107" s="10">
+      <c r="B107">
         <v>87400000</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A108" s="10">
+      <c r="A108">
         <v>444.96</v>
       </c>
-      <c r="B108" s="10">
+      <c r="B108">
         <v>100000000</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A109" s="10">
+      <c r="A109">
         <v>429.69</v>
       </c>
-      <c r="B109" s="10">
+      <c r="B109">
         <v>17000000</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A110" s="10">
+      <c r="A110">
         <v>399</v>
       </c>
-      <c r="B110" s="10">
+      <c r="B110">
         <v>41700000</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A111" s="10">
+      <c r="A111">
         <v>394.26</v>
       </c>
-      <c r="B111" s="10">
+      <c r="B111">
         <v>35250000</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A112" s="10">
+      <c r="A112">
         <v>469.36</v>
       </c>
-      <c r="B112" s="10">
+      <c r="B112">
         <v>11500000</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A113" s="10">
+      <c r="A113">
         <v>681.39</v>
       </c>
-      <c r="B113" s="10">
+      <c r="B113">
         <v>9260000</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A114" s="10">
+      <c r="A114">
         <v>376.99</v>
       </c>
-      <c r="B114" s="10">
+      <c r="B114">
         <v>49100000</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A115" s="10">
+      <c r="A115">
         <v>415.12</v>
       </c>
-      <c r="B115" s="10">
+      <c r="B115">
         <v>7620000</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A116" s="10">
+      <c r="A116">
         <v>321.19</v>
       </c>
-      <c r="B116" s="10">
+      <c r="B116">
         <v>101630000</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A117" s="10">
+      <c r="A117">
         <v>337.57</v>
       </c>
-      <c r="B117" s="10">
+      <c r="B117">
         <v>13560000</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A118" s="10">
+      <c r="A118">
         <v>438.08</v>
       </c>
-      <c r="B118" s="10">
+      <c r="B118">
         <v>24000000</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A119" s="10">
+      <c r="A119">
         <v>393.3</v>
       </c>
-      <c r="B119" s="10">
+      <c r="B119">
         <v>84000000</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A120" s="10">
+      <c r="A120">
         <v>556.48</v>
       </c>
-      <c r="B120" s="10">
+      <c r="B120">
         <v>58000000</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A121" s="10">
+      <c r="A121">
         <v>525.79999999999995</v>
       </c>
-      <c r="B121" s="10">
+      <c r="B121">
         <v>10000000</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A122" s="10">
+      <c r="A122">
         <v>299</v>
       </c>
-      <c r="B122" s="10">
+      <c r="B122">
         <v>21000000</v>
       </c>
     </row>
@@ -17048,7 +16337,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="AA28:AA30">
+  <conditionalFormatting pivot="1" sqref="AA28:AA35">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -17065,6 +16354,22 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup lineWeight="0.25" displayEmptyCellsAs="gap" xr2:uid="{A0B2B817-318E-43F9-B445-C63F7B92B1D8}">
+          <x14:colorSeries theme="7"/>
+          <x14:colorNegative rgb="FFFF0000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FFFFC000"/>
+          <x14:colorLast rgb="FFFFC000"/>
+          <x14:colorHigh rgb="FF00B050"/>
+          <x14:colorLow rgb="FFFF0000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Pivot1!B49:W49</xm:f>
+              <xm:sqref>X49</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
         <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{825C34B0-445B-4C34-8C9A-150C22796346}">
           <x14:colorSeries theme="5"/>
           <x14:colorNegative rgb="FFD00000"/>
@@ -17078,22 +16383,6 @@
             <x14:sparkline>
               <xm:f>Pivot1!B50:W50</xm:f>
               <xm:sqref>X50</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup lineWeight="0.25" displayEmptyCellsAs="gap" xr2:uid="{A0B2B817-318E-43F9-B445-C63F7B92B1D8}">
-          <x14:colorSeries theme="7"/>
-          <x14:colorNegative rgb="FFFF0000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FF0070C0"/>
-          <x14:colorFirst rgb="FFFFC000"/>
-          <x14:colorLast rgb="FFFFC000"/>
-          <x14:colorHigh rgb="FF00B050"/>
-          <x14:colorLow rgb="FFFF0000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Pivot1!B49:W49</xm:f>
-              <xm:sqref>X49</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
